--- a/2020/Requisition/June/23.06.2020 Requisition of Mugdho Corporation.xlsx
+++ b/2020/Requisition/June/23.06.2020 Requisition of Mugdho Corporation.xlsx
@@ -1148,7 +1148,7 @@
       <pane xSplit="4" ySplit="14" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="E117" sqref="E117"/>
+      <selection pane="bottomRight" activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
